--- a/forms/uds/b7/Form B7 (FAQ)- Initial Visit Packet (IVP).xlsx
+++ b/forms/uds/b7/Form B7 (FAQ)- Initial Visit Packet (IVP).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid.sharepoint.com/sites/og_national_alzheimers_coordinating_center/Shared Documents/Projects/UDSv4/UDSv4 Data Quality/UDSv4 Data Quality Checks/Form B7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="8_{43E67398-654C-47E7-A267-15FC8D0BE08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10555698-F014-4B13-B3FE-68EF7C3E655F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416B4C04-66B1-4625-889C-229A1A7CCDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2316" yWindow="1524" windowWidth="18792" windowHeight="9492" firstSheet="1" activeTab="1" xr2:uid="{71CCE37D-9A68-405F-BF6B-6EE9309A047E}"/>
+    <workbookView xWindow="1632" yWindow="552" windowWidth="20172" windowHeight="11916" activeTab="1" xr2:uid="{71CCE37D-9A68-405F-BF6B-6EE9309A047E}"/>
   </bookViews>
   <sheets>
     <sheet name="CHKLST B7" sheetId="2" r:id="rId1"/>
@@ -581,9 +581,6 @@
     <t>IF STOVE=0 (normal), MEALPREP should not =3 (dependent)</t>
   </si>
   <si>
-    <t>Q5. STOVE (difficulty with using stove or kitchen appliances) =0 (normal), but Q6. MEALPREP (difficulty withpreparing meals) =3 (dependent)</t>
-  </si>
-  <si>
     <t>IF STOVE=0 and MEALPREP=3</t>
   </si>
   <si>
@@ -596,17 +593,92 @@
     <t>IF STOVE=3 (dependent), MEALPREP should not =0 (normal)</t>
   </si>
   <si>
-    <t>Q5. STOVE (difficulty with using stove or kitchen appliances) =3 (dependent), but Q6. MEALPREP (difficulty withpreparing meals) =0 (normal)</t>
-  </si>
-  <si>
     <t>IF STOVE=3 and MEALPREP=0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q5. STOVE (difficulty with using stove or kitchen appliances)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =0 (normal), but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q6. MEALPREP (difficulty withpreparing meals) =3 (dependent)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q5. STOVE (difficulty with using stove or kitchen appliances)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =3 (dependent), but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q6. MEALPREP (difficulty withpreparing meals)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =0 (normal)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,6 +783,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -789,7 +867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -841,38 +919,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -892,9 +940,45 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,28 +1320,28 @@
   <dimension ref="A1:AS14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="63.88671875" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="11" customWidth="1"/>
-    <col min="3" max="4" width="30.85546875" style="11" customWidth="1"/>
-    <col min="5" max="8" width="5.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="11" customWidth="1"/>
-    <col min="10" max="19" width="5.7109375" style="11" customWidth="1"/>
-    <col min="20" max="22" width="10.7109375" style="11" customWidth="1"/>
-    <col min="23" max="23" width="73.28515625" style="11" customWidth="1"/>
-    <col min="24" max="25" width="17.140625" style="11" customWidth="1"/>
-    <col min="26" max="26" width="50.7109375" style="11" customWidth="1"/>
-    <col min="27" max="27" width="71.42578125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="30.88671875" style="11" customWidth="1"/>
+    <col min="5" max="8" width="5.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="11" customWidth="1"/>
+    <col min="10" max="19" width="5.6640625" style="11" customWidth="1"/>
+    <col min="20" max="22" width="10.6640625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="73.33203125" style="11" customWidth="1"/>
+    <col min="24" max="25" width="17.109375" style="11" customWidth="1"/>
+    <col min="26" max="26" width="50.6640625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="71.44140625" style="11" customWidth="1"/>
     <col min="28" max="28" width="15" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="14.45">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:45" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1295,8 +1379,8 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:45" ht="46.5" customHeight="1">
-      <c r="A2" s="42"/>
+    <row r="2" spans="1:45" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1332,57 +1416,57 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="62.25" customHeight="1">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:45" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="23" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="24" t="s">
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="26" t="s">
+      <c r="Y3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="43" t="s">
+      <c r="AA3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="43" t="s">
+      <c r="AB3" s="42" t="s">
         <v>16</v>
       </c>
       <c r="AC3" s="2"/>
@@ -1403,11 +1487,11 @@
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
     </row>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="17" t="s">
         <v>17</v>
       </c>
@@ -1462,17 +1546,17 @@
       <c r="V4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12.75">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -1553,7 +1637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="12.75">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>42</v>
       </c>
@@ -1634,7 +1718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="12.75">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
@@ -1715,7 +1799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="12.75">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
@@ -1796,7 +1880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="27">
+    <row r="9" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>51</v>
       </c>
@@ -1879,7 +1963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="27">
+    <row r="10" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
@@ -1962,7 +2046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="12.75">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
@@ -2043,7 +2127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="12.75">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>62</v>
       </c>
@@ -2124,7 +2208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="12.75">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>65</v>
       </c>
@@ -2205,7 +2289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="27">
+    <row r="14" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>68</v>
       </c>
@@ -2288,12 +2372,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E3:S3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
@@ -2301,6 +2379,12 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="E3:S3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:S14">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -2330,29 +2414,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A2DA49-5542-48F4-9EF1-095445E99634}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="3" width="28.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="73.5703125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="11"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="3" width="28.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="73.5546875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="11"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.45">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2374,8 +2458,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="42"/>
+    <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2395,67 +2479,67 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="18">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="10"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" s="38" customFormat="1" ht="45.75">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:15" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-    </row>
-    <row r="5" spans="1:15" ht="30.75">
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
@@ -2465,7 +2549,7 @@
       <c r="C5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="16" t="s">
@@ -2491,7 +2575,7 @@
       </c>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="45.75">
+    <row r="6" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
@@ -2501,7 +2585,7 @@
       <c r="C6" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="23" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="16" t="s">
@@ -2527,7 +2611,7 @@
       </c>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:15" ht="30.75">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>43</v>
       </c>
@@ -2537,7 +2621,7 @@
       <c r="C7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E7" s="20" t="s">
@@ -2562,7 +2646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45.75">
+    <row r="8" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>43</v>
       </c>
@@ -2572,7 +2656,7 @@
       <c r="C8" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="46" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -2597,7 +2681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30.75">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>46</v>
       </c>
@@ -2607,7 +2691,7 @@
       <c r="C9" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -2632,7 +2716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45.75">
+    <row r="10" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>46</v>
       </c>
@@ -2667,7 +2751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30.75">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>49</v>
       </c>
@@ -2702,7 +2786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45.75">
+    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>49</v>
       </c>
@@ -2737,7 +2821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30.75">
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
@@ -2772,7 +2856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="45.75">
+    <row r="14" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>52</v>
       </c>
@@ -2807,7 +2891,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30.75">
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2842,7 +2926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="45.75">
+    <row r="16" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>57</v>
       </c>
@@ -2877,7 +2961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30.75">
+    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>60</v>
       </c>
@@ -2912,7 +2996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="45.75">
+    <row r="18" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>60</v>
       </c>
@@ -2947,7 +3031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30.75">
+    <row r="19" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
@@ -2982,7 +3066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="45.75">
+    <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>63</v>
       </c>
@@ -3017,7 +3101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="45.75">
+    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>66</v>
       </c>
@@ -3052,7 +3136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="45.75">
+    <row r="22" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>66</v>
       </c>
@@ -3087,7 +3171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30.75">
+    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>69</v>
       </c>
@@ -3122,7 +3206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="45.75">
+    <row r="24" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>69</v>
       </c>
@@ -3157,7 +3241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15">
+    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="20"/>
@@ -3166,139 +3250,139 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:15" ht="18">
-      <c r="A26" s="44" t="s">
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
       <c r="M26" s="10"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" s="38" customFormat="1" ht="45.75">
-      <c r="A27" s="34" t="s">
+    <row r="27" spans="1:15" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="K27" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="L27" s="35" t="s">
+      <c r="L27" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-    </row>
-    <row r="28" spans="1:15" s="38" customFormat="1" ht="45.75">
-      <c r="A28" s="39" t="s">
+      <c r="M27" s="26"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="F28" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="I28" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G29" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H29" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="K28" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-    </row>
-    <row r="29" spans="1:15" s="38" customFormat="1" ht="45.75">
-      <c r="A29" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="K29" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
+      <c r="K29" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3306,14 +3390,14 @@
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A26:L26"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I24 K5:K24" xr:uid="{8B34C798-1860-49CB-BD37-D1A731620132}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H25:H27 J25:J27" xr:uid="{0405BCC3-C73D-4E64-A243-06AA48A5E755}">
+    <dataValidation type="list" allowBlank="1" sqref="H25:H27 J25:J27 I28:I29 K28:K29" xr:uid="{0405BCC3-C73D-4E64-A243-06AA48A5E755}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G25:G27" xr:uid="{A2DC70D5-1643-4340-8D60-D3F59FF633D5}">
+    <dataValidation type="list" allowBlank="1" sqref="G25:G27 H28:H29" xr:uid="{A2DC70D5-1643-4340-8D60-D3F59FF633D5}">
       <formula1>"Error,Alert"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I25:I27" xr:uid="{040D3455-C3A1-476F-B370-60420B81D076}">
@@ -3325,17 +3409,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J24" xr:uid="{3ADC1017-3624-4856-9B54-59FF9017881C}">
       <formula1>"Missingness,Conformity,Plausibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H28:H29" xr:uid="{A8608624-719E-4DEF-83C3-A82E063FEE2A}">
-      <formula1>"Error,Alert"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I28:I29 K28:K29" xr:uid="{BC6DD372-D80D-4E3D-BD34-A1A654E27627}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J28:J29" xr:uid="{75C4990A-5A9B-46D2-A5D1-FDD10EE698EF}">
       <formula1>"Missingness,Conformity,Plausibility"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3351,15 +3430,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A8DA606E2B1C949BA189EF36A6CE38A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cce30b912a31f02bd8cb847ce8e86410">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7144a4fd-d089-4481-9531-eb41f1a48779" xmlns:ns3="6347c93a-7ca0-4b32-baca-198d03ca546e" xmlns:ns4="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5ea083c35c7fa970367aeb6655cb1be" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="7144a4fd-d089-4481-9531-eb41f1a48779"/>
@@ -3601,14 +3671,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A81A94-41FB-4065-BAA3-1D1CE6CDF737}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A81A94-41FB-4065-BAA3-1D1CE6CDF737}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+    <ds:schemaRef ds:uri="7144a4fd-d089-4481-9531-eb41f1a48779"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B774DF-33FA-49CE-9FA7-BDBFEF518B4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C15DA6D-5D54-492E-B355-EA4CCF803FEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7144a4fd-d089-4481-9531-eb41f1a48779"/>
+    <ds:schemaRef ds:uri="6347c93a-7ca0-4b32-baca-198d03ca546e"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C15DA6D-5D54-492E-B355-EA4CCF803FEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B774DF-33FA-49CE-9FA7-BDBFEF518B4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/forms/uds/b7/Form B7 (FAQ)- Initial Visit Packet (IVP).xlsx
+++ b/forms/uds/b7/Form B7 (FAQ)- Initial Visit Packet (IVP).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25423"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid.sharepoint.com/sites/og_national_alzheimers_coordinating_center/Shared Documents/Projects/UDSv4/UDSv4 Data Quality/UDSv4 Data Quality Checks/Form B7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="8_{43E67398-654C-47E7-A267-15FC8D0BE08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{665BB42B-1ECD-4BC0-B4D0-4B4E66FF379B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7381A45A-9DCF-4FD7-B7C1-D3DA9FB2D8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2316" yWindow="1524" windowWidth="18792" windowHeight="9492" firstSheet="1" activeTab="1" xr2:uid="{71CCE37D-9A68-405F-BF6B-6EE9309A047E}"/>
+    <workbookView xWindow="576" yWindow="504" windowWidth="20760" windowHeight="11700" firstSheet="1" activeTab="1" xr2:uid="{71CCE37D-9A68-405F-BF6B-6EE9309A047E}"/>
   </bookViews>
   <sheets>
     <sheet name="CHKLST B7" sheetId="2" r:id="rId1"/>
@@ -606,7 +606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,6 +859,23 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -877,23 +894,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1235,29 +1235,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4294677-2C81-4C1B-ACE8-F076D3AB89E1}">
   <dimension ref="A1:AS14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="63.88671875" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="11" customWidth="1"/>
-    <col min="3" max="4" width="30.85546875" style="11" customWidth="1"/>
-    <col min="5" max="8" width="5.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="11" customWidth="1"/>
-    <col min="10" max="19" width="5.7109375" style="11" customWidth="1"/>
-    <col min="20" max="22" width="10.7109375" style="11" customWidth="1"/>
-    <col min="23" max="23" width="73.28515625" style="11" customWidth="1"/>
-    <col min="24" max="25" width="17.140625" style="11" customWidth="1"/>
-    <col min="26" max="26" width="50.7109375" style="11" customWidth="1"/>
-    <col min="27" max="27" width="71.42578125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="30.88671875" style="11" customWidth="1"/>
+    <col min="5" max="8" width="5.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="11" customWidth="1"/>
+    <col min="10" max="19" width="5.6640625" style="11" customWidth="1"/>
+    <col min="20" max="22" width="10.6640625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="73.33203125" style="11" customWidth="1"/>
+    <col min="24" max="25" width="17.109375" style="11" customWidth="1"/>
+    <col min="26" max="26" width="50.6640625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="71.44140625" style="11" customWidth="1"/>
     <col min="28" max="28" width="15" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="14.45">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:45" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1295,8 +1295,8 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:45" ht="46.5" customHeight="1">
-      <c r="A2" s="42"/>
+    <row r="2" spans="1:45" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1332,57 +1332,57 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:45" ht="62.25" customHeight="1">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:45" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="37" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="38" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="39" t="s">
+      <c r="X3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="40" t="s">
+      <c r="Y3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="40" t="s">
+      <c r="Z3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="43" t="s">
+      <c r="AA3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="AB3" s="43" t="s">
+      <c r="AB3" s="35" t="s">
         <v>16</v>
       </c>
       <c r="AC3" s="2"/>
@@ -1403,11 +1403,11 @@
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
     </row>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="17" t="s">
         <v>17</v>
       </c>
@@ -1462,17 +1462,17 @@
       <c r="V4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" spans="1:45" ht="12.75">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="12.75">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>42</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="12.75">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="12.75">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="27">
+    <row r="9" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>51</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="27">
+    <row r="10" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>56</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="12.75">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="12.75">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>62</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="12.75">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>65</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="27">
+    <row r="14" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>68</v>
       </c>
@@ -2288,6 +2288,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E3:S3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
@@ -2295,12 +2301,6 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="E3:S3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:S14">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -2330,29 +2330,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A2DA49-5542-48F4-9EF1-095445E99634}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="3" width="28.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="73.5703125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="11"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="3" width="28.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="73.5546875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="11"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.45">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2374,8 +2374,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="15">
-      <c r="A2" s="42"/>
+    <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="18">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>72</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" s="27" customFormat="1" ht="45.75">
+    <row r="4" spans="1:15" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>73</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="N4" s="26"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:15" ht="30.75">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="45.75">
+    <row r="6" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:15" ht="30.75">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>43</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45.75">
+    <row r="8" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>43</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30.75">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>46</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45.75">
+    <row r="10" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>46</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30.75">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>49</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45.75">
+    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>49</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30.75">
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="45.75">
+    <row r="14" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>52</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30.75">
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="45.75">
+    <row r="16" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>57</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30.75">
+    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>60</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="45.75">
+    <row r="18" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>60</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30.75">
+    <row r="19" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="45.75">
+    <row r="20" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>63</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="45.75">
+    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>66</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="45.75">
+    <row r="22" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>66</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30.75">
+    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>69</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="45.75">
+    <row r="24" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>69</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15">
+    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="20"/>
@@ -3166,7 +3166,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:15" ht="18">
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>169</v>
       </c>
@@ -3185,7 +3185,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" s="27" customFormat="1" ht="45.75">
+    <row r="27" spans="1:15" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>73</v>
       </c>
@@ -3226,9 +3226,9 @@
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" spans="1:15" s="27" customFormat="1" ht="45.75">
+    <row r="28" spans="1:15" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>171</v>
@@ -3263,9 +3263,9 @@
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:15" s="27" customFormat="1" ht="45.75">
+    <row r="29" spans="1:15" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>171</v>
@@ -3345,6 +3345,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A8DA606E2B1C949BA189EF36A6CE38A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cce30b912a31f02bd8cb847ce8e86410">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7144a4fd-d089-4481-9531-eb41f1a48779" xmlns:ns3="6347c93a-7ca0-4b32-baca-198d03ca546e" xmlns:ns4="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5ea083c35c7fa970367aeb6655cb1be" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="7144a4fd-d089-4481-9531-eb41f1a48779"/>
@@ -3586,23 +3595,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A81A94-41FB-4065-BAA3-1D1CE6CDF737}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A81A94-41FB-4065-BAA3-1D1CE6CDF737}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+    <ds:schemaRef ds:uri="7144a4fd-d089-4481-9531-eb41f1a48779"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C15DA6D-5D54-492E-B355-EA4CCF803FEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B774DF-33FA-49CE-9FA7-BDBFEF518B4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B774DF-33FA-49CE-9FA7-BDBFEF518B4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C15DA6D-5D54-492E-B355-EA4CCF803FEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7144a4fd-d089-4481-9531-eb41f1a48779"/>
+    <ds:schemaRef ds:uri="6347c93a-7ca0-4b32-baca-198d03ca546e"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>